--- a/01_Input/00_CO Validation/Viet Nam - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Viet Nam - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="11_D8F61223F3A0F98994E878555E7F6C80D2E00C80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6D38D2-3A09-45CF-849A-0316FB910986}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="11_D8F61223F3A0F98994E878555E7F6C80D2E00C80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A67478-D793-4CF5-8345-059C659C4DD7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -236,7 +239,7 @@
     <t>N/A yet</t>
   </si>
   <si>
-    <t>Entrepreneurship Training</t>
+    <t>Medium Enterprises</t>
   </si>
   <si>
     <t>Number of enterprises reached by SHIFT's information, dissemination, capacity building and/or technical support confirm they plan to invest in renewable energy, energy efficiency or other energy transition technologies</t>
@@ -308,9 +311,6 @@
     <t>Decarbonization</t>
   </si>
   <si>
-    <t>Medium Enterprises</t>
-  </si>
-  <si>
     <t>Number of enterprises supported by SHIFT that have implemented technically and financially feasible pilot projects in RE, EE or other energy transition technologies</t>
   </si>
   <si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>Policy and Regulatory Frameworks</t>
+  </si>
+  <si>
+    <t>Entrepreneurship Training</t>
   </si>
   <si>
     <t>50 kW</t>
@@ -1061,53 +1064,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1428,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874F726E-0702-4819-A4CE-990D59EFF568}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1874,7 +1877,7 @@
       <c r="D11" s="51">
         <v>3000000</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="27" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="18" t="s">
@@ -1913,11 +1916,11 @@
       <c r="B12" s="67"/>
       <c r="C12" s="62"/>
       <c r="D12" s="61"/>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -1950,10 +1953,10 @@
         <v>117633</v>
       </c>
       <c r="B13" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="69" t="s">
         <v>62</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>63</v>
       </c>
       <c r="D13" s="51">
         <v>2201100</v>
@@ -1971,7 +1974,7 @@
         <v>0.05</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1979,7 +1982,7 @@
         <v>26</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
@@ -1998,10 +2001,10 @@
       <c r="C14" s="70"/>
       <c r="D14" s="56"/>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -2010,7 +2013,7 @@
         <v>1300</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -2018,7 +2021,7 @@
         <v>26</v>
       </c>
       <c r="M14" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
@@ -2037,10 +2040,10 @@
       <c r="C15" s="70"/>
       <c r="D15" s="56"/>
       <c r="E15" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
@@ -2049,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -2086,7 +2089,7 @@
         <v>1600</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -2111,10 +2114,10 @@
       <c r="C17" s="70"/>
       <c r="D17" s="56"/>
       <c r="E17" s="27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -2123,7 +2126,7 @@
         <v>46</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -2160,7 +2163,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="74"/>
@@ -2177,7 +2180,7 @@
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S18" s="7" t="s">
         <v>59</v>
@@ -2294,20 +2297,20 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="45.75">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="83">
         <v>896583</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>23</v>
@@ -2321,11 +2324,11 @@
       <c r="I2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81" t="s">
+      <c r="K2" s="76"/>
+      <c r="L2" s="76" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="21"/>
@@ -2337,10 +2340,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="121.5">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="79"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
@@ -2356,18 +2359,18 @@
       <c r="I3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="259.5">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>34</v>
@@ -2381,9 +2384,9 @@
       <c r="I4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="40" t="s">
         <v>36</v>
       </c>
@@ -2401,18 +2404,18 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="45.75" customHeight="1">
-      <c r="A5" s="78">
+      <c r="A5" s="80">
         <v>1061012</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91">
+      <c r="C5" s="87"/>
+      <c r="D5" s="88">
         <v>1128978</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>40</v>
@@ -2438,10 +2441,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="27" t="s">
         <v>42</v>
       </c>
@@ -2469,10 +2472,10 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="45.75">
-      <c r="A7" s="78"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="27" t="s">
         <v>46</v>
       </c>
@@ -2500,10 +2503,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="30.75">
-      <c r="A8" s="78"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="91"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="27" t="s">
         <v>49</v>
       </c>
@@ -2525,10 +2528,10 @@
       <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="50.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
@@ -2550,10 +2553,10 @@
       <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="37.5">
-      <c r="A10" s="78"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="27" t="str">
         <f>'Beneficiary Categories'!B15</f>
         <v>Policy or Regulatory Framework</v>
@@ -2588,20 +2591,20 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="5" customFormat="1" ht="161.25" customHeight="1">
-      <c r="A11" s="76">
+      <c r="A11" s="89">
         <v>134019</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="83">
         <v>3000000</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>56</v>
@@ -2612,7 +2615,7 @@
       <c r="H11" s="8">
         <v>70</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="91" t="s">
         <v>57</v>
       </c>
       <c r="J11" s="11"/>
@@ -2634,15 +2637,15 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="6" customFormat="1" ht="91.5">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="G12" s="20">
         <v>0</v>
@@ -2650,7 +2653,7 @@
       <c r="H12" s="20">
         <v>20</v>
       </c>
-      <c r="I12" s="80"/>
+      <c r="I12" s="91"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
@@ -2670,16 +2673,16 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="183" customHeight="1">
-      <c r="A13" s="84">
+      <c r="A13" s="79">
         <v>117633</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="79">
+      <c r="D13" s="83">
         <v>2201100</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -2695,15 +2698,15 @@
         <v>78</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="81" t="s">
+      <c r="L13" s="76" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13" t="s">
         <v>58</v>
@@ -2713,15 +2716,15 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="168" customHeight="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="79"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
@@ -2730,13 +2733,13 @@
         <v>1300</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
-      <c r="L14" s="82"/>
+      <c r="L14" s="77"/>
       <c r="M14" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O14" t="s">
         <v>58</v>
@@ -2746,15 +2749,15 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="30.75">
-      <c r="A15" s="78"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="79"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="13">
         <v>0</v>
@@ -2763,11 +2766,11 @@
         <v>3</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="82"/>
+      <c r="L15" s="77"/>
       <c r="M15" s="21"/>
       <c r="O15" t="s">
         <v>58</v>
@@ -2777,10 +2780,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="76.5">
-      <c r="A16" s="78"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="79"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="21" t="s">
         <v>79</v>
       </c>
@@ -2794,11 +2797,11 @@
         <v>1600</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="82"/>
+      <c r="L16" s="77"/>
       <c r="M16" s="21"/>
       <c r="O16" t="s">
         <v>58</v>
@@ -2808,15 +2811,15 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="76.5">
-      <c r="A17" s="78"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="79"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="13">
         <v>0</v>
@@ -2825,11 +2828,11 @@
         <v>46</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="82"/>
+      <c r="L17" s="77"/>
       <c r="M17" s="21"/>
       <c r="O17" t="s">
         <v>58</v>
@@ -2839,10 +2842,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="121.5">
-      <c r="A18" s="78"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="79"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="21" t="s">
         <v>80</v>
       </c>
@@ -2856,11 +2859,11 @@
         <v>6</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="83"/>
+      <c r="L18" s="78"/>
       <c r="M18" s="21"/>
       <c r="O18" t="s">
         <v>58</v>
@@ -2869,7 +2872,7 @@
         <v>29</v>
       </c>
       <c r="R18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s">
         <v>59</v>
@@ -2877,6 +2880,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
@@ -2893,11 +2901,6 @@
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="D5:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O18" xr:uid="{0E9AAD0A-3D19-48F8-A102-B971FC4B1A2B}">
@@ -2979,16 +2982,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="45.75">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="83">
         <v>896583</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -3008,10 +3011,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="121.5">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="79"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
@@ -3029,10 +3032,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="60.75">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="7" t="str">
         <f>E2</f>
         <v xml:space="preserve">Policy or Regulatory Framework and pilot activities </v>
@@ -3051,14 +3054,14 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A5" s="78">
+      <c r="A5" s="80">
         <v>1061012</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91">
+      <c r="C5" s="87"/>
+      <c r="D5" s="88">
         <v>1128978</v>
       </c>
       <c r="E5" s="27" t="s">
@@ -3078,10 +3081,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="70.5" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="27" t="s">
         <v>46</v>
       </c>
@@ -3099,10 +3102,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="45.75">
-      <c r="A7" s="78"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="27" t="s">
         <v>46</v>
       </c>
@@ -3120,10 +3123,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.75">
-      <c r="A8" s="78"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="91"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="27" t="s">
         <v>90</v>
       </c>
@@ -3141,10 +3144,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="50.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
@@ -3162,10 +3165,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="37.5">
-      <c r="A10" s="78"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="27" t="str">
         <f>'Beneficiary Categories'!B15</f>
         <v>Policy or Regulatory Framework</v>
@@ -3184,16 +3187,16 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" ht="161.25" customHeight="1">
-      <c r="A11" s="76">
+      <c r="A11" s="89">
         <v>134019</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="83">
         <v>3000000</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -3208,20 +3211,20 @@
       <c r="H11" s="8">
         <v>70</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="91" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="91.5">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="G12" s="20">
         <v>0</v>
@@ -3229,19 +3232,19 @@
       <c r="H12" s="20">
         <v>20</v>
       </c>
-      <c r="I12" s="80"/>
+      <c r="I12" s="91"/>
     </row>
     <row r="13" spans="1:10" ht="183" customHeight="1">
-      <c r="A13" s="84">
+      <c r="A13" s="79">
         <v>117633</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="79">
+      <c r="D13" s="83">
         <v>2201100</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -3257,19 +3260,19 @@
         <v>93</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="168" customHeight="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="79"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="21" t="s">
         <v>94</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
@@ -3282,15 +3285,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75">
-      <c r="A15" s="78"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="79"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="21" t="s">
         <v>97</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="13">
         <v>0</v>
@@ -3299,14 +3302,14 @@
         <v>3</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="76.5">
-      <c r="A16" s="78"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="79"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="21" t="s">
         <v>79</v>
       </c>
@@ -3320,19 +3323,19 @@
         <v>98</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="76.5">
-      <c r="A17" s="78"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="79"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="21" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G17" s="13">
         <v>0</v>
@@ -3341,14 +3344,14 @@
         <v>46</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="121.5">
-      <c r="A18" s="78"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="79"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="21" t="s">
         <v>80</v>
       </c>
@@ -3362,19 +3365,11 @@
         <v>6</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="D13:D18"/>
     <mergeCell ref="B13:B18"/>
@@ -3384,6 +3379,14 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1" xr:uid="{D6EF8A47-5441-4CF6-A2B7-731F05227061}"/>
@@ -3452,7 +3455,7 @@
         <v>94</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>105</v>
@@ -3499,7 +3502,7 @@
         <v>97</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>113</v>
@@ -3508,7 +3511,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="94"/>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>114</v>
@@ -3528,7 +3531,7 @@
     <row r="13" spans="1:3">
       <c r="A13" s="95"/>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>116</v>
@@ -3577,26 +3580,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -3845,8 +3828,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B2295D2-686C-4E88-AC90-9CDCBA3A093B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{026D64B1-7D69-471C-86B7-14AEDFA13599}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3854,5 +3857,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{026D64B1-7D69-471C-86B7-14AEDFA13599}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B2295D2-686C-4E88-AC90-9CDCBA3A093B}"/>
 </file>
--- a/01_Input/00_CO Validation/Viet Nam - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Viet Nam - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="623" documentId="11_D8F61223F3A0F98994E878555E7F6C80D2E00C80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC18741B-D8C3-4DBC-AF91-B2DDB704445F}"/>
+  <xr:revisionPtr revIDLastSave="626" documentId="11_D8F61223F3A0F98994E878555E7F6C80D2E00C80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50684D2E-1A8B-4BF2-A639-1543FE4905D7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="136">
   <si>
     <t>Project ID</t>
   </si>
@@ -110,7 +110,7 @@
     <t>https://www.undp.org/vietnam/projects/catalysing-sustainable-shift-towards-e-mobility</t>
   </si>
   <si>
-    <t>GHG Emission Reduction</t>
+    <t>GHG Emissions Reduction</t>
   </si>
   <si>
     <t xml:space="preserve">Tons of CO2 emissions avoided or reduced/year 
@@ -184,10 +184,6 @@
   </si>
   <si>
     <t>National</t>
-  </si>
-  <si>
-    <t>should we add 6 as final results in the Target column? 
--&gt; Please feel free to revise. I myself think that we should have another column on Achievements.</t>
   </si>
   <si>
     <t>Scaling up E-mobility and mechanisms for promoting investments in green projects in Viet Nam (March 2023 - March 2024</t>
@@ -315,6 +311,83 @@
     <t>Solar</t>
   </si>
   <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Agricultural Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100  households, corresponding to 300 farmers benefitted from the project support to shrimp and dragron fruit models at two provinces Binh Thuan and Bac Lieu; and 1,000 turns of people at provincial, district and commune levels benefitted from project trainings </t>
+  </si>
+  <si>
+    <t>Small Enterprises</t>
+  </si>
+  <si>
+    <t>03 Small businesses/cooperatives improved marketting and green labelling via e-commerce/online practices</t>
+  </si>
+  <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - nearly 1000 local farmers/producers received trainign on sustainable shrimp farming, green technology application etc. 
+- Nearly 600 local farmers/producers received  trainign on sustainable dragon fruit farming, green technology application, e-commerce, carbon footprint tracking</t>
+  </si>
+  <si>
+    <t># of firms</t>
+  </si>
+  <si>
+    <t>4 firms/cooperatives in Binh Thuan and 2 cooperatives in Bac Lieu received full training packages for full green transformation process
+At least 40 local firms/cooperatives in two provices received different topical training on green technologies, e-commerce, green treacebility/carbon footprint tracking, Global gap/vietgap, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Update Viet Nam NDC update 2022
+- Develop Viet Nam NDCC 2022
+- 01 completed proposal for direct lending modality for Small and Medium Enterprise Fund
+- 01 Climate Business Index Platform
+- 2 Agriculture supply chain and apps platform for green dragon fruits and green shrimp (on-going)
+</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>00130633</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Policy and Regulatory Frameworks</t>
+  </si>
+  <si>
+    <t>should we add 6 as final results in the Target column? 
+-&gt; Please feel free to revise. I myself think that we should have another column on Achievements.</t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
+  </si>
+  <si>
+    <t>Entrepreneurship Training</t>
+  </si>
+  <si>
+    <t>Scale up energy finance</t>
+  </si>
+  <si>
+    <t>50 kW</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -342,15 +415,6 @@
     </r>
   </si>
   <si>
-    <t>Agriculture and Food System</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100  households, corresponding to 300 farmers benefitted from the project support to shrimp and dragron fruit models at two provinces Binh Thuan and Bac Lieu; and 1,000 turns of people at provincial, district and commune levels benefitted from project trainings </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -368,73 +432,6 @@
       </rPr>
       <t>-&gt; Revised.</t>
     </r>
-  </si>
-  <si>
-    <t>Small Enterprises</t>
-  </si>
-  <si>
-    <t>03 Small businesses/cooperatives improved marketting and green labelling via e-commerce/online practices</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - nearly 1000 local farmers/producers received trainign on sustainable shrimp farming, green technology application etc. 
-- Nearly 600 local farmers/producers received  trainign on sustainable dragon fruit farming, green technology application, e-commerce, carbon footprint tracking</t>
-  </si>
-  <si>
-    <t># of firms</t>
-  </si>
-  <si>
-    <t>4 firms/cooperatives in Binh Thuan and 2 cooperatives in Bac Lieu received full training packages for full green transformation process
-At least 40 local firms/cooperatives in two provices received different topical training on green technologies, e-commerce, green treacebility/carbon footprint tracking, Global gap/vietgap, etc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Update Viet Nam NDC update 2022
-- Develop Viet Nam NDCC 2022
-- 01 completed proposal for direct lending modality for Small and Medium Enterprise Fund
-- 01 Climate Business Index Platform
-- 2 Agriculture supply chain and apps platform for green dragon fruits and green shrimp (on-going)
-</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>00130633</t>
-  </si>
-  <si>
-    <t>GHG Emissions Reduction</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>Policy and Regulatory Frameworks</t>
-  </si>
-  <si>
-    <t>Incentives and Support</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Close the gap on energy access</t>
-  </si>
-  <si>
-    <t>Other Energy Services</t>
-  </si>
-  <si>
-    <t>Entrepreneurship Training</t>
-  </si>
-  <si>
-    <t>Scale up energy finance</t>
-  </si>
-  <si>
-    <t>50 kW</t>
   </si>
   <si>
     <t>Capacity Building</t>
@@ -874,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -982,9 +979,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1076,9 +1070,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1471,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874F726E-0702-4819-A4CE-990D59EFF568}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O4" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1501,85 +1492,85 @@
     <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30.75">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="68" t="s">
+    <row r="1" spans="1:21" ht="30.75">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="75" t="s">
+      <c r="N1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="O1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="78" t="s">
+      <c r="S1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="T1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="78" t="s">
+      <c r="U1" s="76" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="45.75" customHeight="1">
-      <c r="A2" s="44">
+    <row r="2" spans="1:21" ht="45.75" customHeight="1">
+      <c r="A2" s="43">
         <v>130633</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="46">
         <v>896583</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1594,34 +1585,30 @@
       <c r="I2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="79" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="80" t="s">
+      <c r="M2" s="70"/>
+      <c r="N2" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="81"/>
-      <c r="W2" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="1:24" ht="121.5">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="79"/>
+    </row>
+    <row r="3" spans="1:21" ht="121.5">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1637,34 +1624,30 @@
       <c r="I3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="79" t="s">
+      <c r="K3" s="52"/>
+      <c r="L3" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="80" t="s">
+      <c r="M3" s="70"/>
+      <c r="N3" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="81"/>
-      <c r="W3" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="1:24" ht="305.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="79"/>
+    </row>
+    <row r="4" spans="1:21" ht="259.5">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1680,55 +1663,49 @@
       <c r="I4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="79" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="72"/>
-      <c r="N4" s="80" t="s">
+      <c r="M4" s="70"/>
+      <c r="N4" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72" t="s">
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="81"/>
-      <c r="T4" s="72" t="s">
+      <c r="S4" s="79"/>
+      <c r="T4" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="81"/>
-      <c r="W4" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4" s="39" t="s">
+      <c r="U4" s="79"/>
+    </row>
+    <row r="5" spans="1:21" ht="90.75" customHeight="1">
+      <c r="A5" s="47">
+        <v>1061012</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="90.75" customHeight="1">
-      <c r="A5" s="48">
-        <v>1061012</v>
-      </c>
-      <c r="B5" s="45" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="46">
+        <v>1128978</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="47">
-        <v>1128978</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -1737,37 +1714,35 @@
         <v>45</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="79" t="s">
+      <c r="L5" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="80" t="s">
+      <c r="M5" s="70"/>
+      <c r="N5" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="81"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="70.5" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="59"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="79"/>
+    </row>
+    <row r="6" spans="1:21" ht="70.5" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -1776,80 +1751,76 @@
         <v>4.2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="80" t="s">
+      <c r="M6" s="70"/>
+      <c r="N6" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="81" t="s">
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="70"/>
+      <c r="U6" s="79"/>
+    </row>
+    <row r="7" spans="1:21" ht="45.75">
+      <c r="A7" s="52"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="T6" s="72"/>
-      <c r="U6" s="81"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="45.75">
-      <c r="A7" s="53"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="23" t="s">
+      <c r="F7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="39">
         <v>570</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="79" t="s">
+      <c r="L7" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="72"/>
-      <c r="N7" s="80" t="s">
+      <c r="M7" s="70"/>
+      <c r="N7" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="72"/>
-      <c r="U7" s="81"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" ht="45.75">
-      <c r="A8" s="53"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="59"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="70"/>
+      <c r="U7" s="79"/>
+    </row>
+    <row r="8" spans="1:21" ht="45.75">
+      <c r="A8" s="52"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>48</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -1858,37 +1829,35 @@
         <v>70</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="72"/>
-      <c r="N8" s="80" t="s">
+      <c r="M8" s="70"/>
+      <c r="N8" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="81"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" ht="50.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="59"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="79"/>
+    </row>
+    <row r="9" spans="1:21" ht="50.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>49</v>
+      <c r="F9" s="40" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -1897,38 +1866,36 @@
         <v>370</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="72"/>
-      <c r="N9" s="80" t="s">
+      <c r="M9" s="70"/>
+      <c r="N9" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="81"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="45.75">
-      <c r="A10" s="58"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="60"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="79"/>
+    </row>
+    <row r="10" spans="1:21" ht="45.75">
+      <c r="A10" s="57"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="23" t="str">
         <f>'Beneficiary Categories'!A15</f>
         <v>Medium Enterprises</v>
       </c>
-      <c r="F10" s="42" t="s">
-        <v>50</v>
+      <c r="F10" s="41" t="s">
+        <v>49</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -1937,45 +1904,43 @@
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="72"/>
-      <c r="N10" s="80" t="s">
+      <c r="M10" s="70"/>
+      <c r="N10" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="81"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" ht="161.25" customHeight="1">
-      <c r="A11" s="61">
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="79"/>
+    </row>
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="161.25" customHeight="1">
+      <c r="A11" s="60">
         <v>134019</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="D11" s="46">
+        <v>3000000</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="47">
-        <v>3000000</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="F11" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -1983,38 +1948,36 @@
       <c r="H11" s="5">
         <v>70</v>
       </c>
-      <c r="I11" s="62" t="s">
-        <v>55</v>
+      <c r="I11" s="61" t="s">
+        <v>54</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="79" t="s">
+      <c r="L11" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="80" t="s">
+      <c r="M11" s="70"/>
+      <c r="N11" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="81"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-    </row>
-    <row r="12" spans="1:24" s="2" customFormat="1" ht="91.5">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="57"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="79"/>
+    </row>
+    <row r="12" spans="1:21" s="2" customFormat="1" ht="91.5">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -2022,44 +1985,42 @@
       <c r="H12" s="5">
         <v>20</v>
       </c>
-      <c r="I12" s="64"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="79" t="s">
+      <c r="L12" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="72"/>
-      <c r="N12" s="80" t="s">
+      <c r="M12" s="70"/>
+      <c r="N12" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="81"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-    </row>
-    <row r="13" spans="1:24" ht="183" customHeight="1">
-      <c r="A13" s="44">
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="79"/>
+    </row>
+    <row r="13" spans="1:21" ht="183" customHeight="1">
+      <c r="A13" s="43">
         <v>117633</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <v>2201100</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -2068,43 +2029,37 @@
         <v>0.05</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="79" t="s">
+      <c r="L13" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="80" t="s">
+      <c r="M13" s="70"/>
+      <c r="N13" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="81" t="s">
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" s="70"/>
+      <c r="U13" s="79"/>
+    </row>
+    <row r="14" spans="1:21" ht="168" customHeight="1">
+      <c r="A14" s="48"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="72"/>
-      <c r="U13" s="81"/>
-      <c r="W13" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="X13" s="33" t="s">
+      <c r="F14" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="168" customHeight="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -2112,42 +2067,36 @@
       <c r="H14" s="5">
         <v>1300</v>
       </c>
-      <c r="I14" s="43" t="s">
-        <v>64</v>
+      <c r="I14" s="42" t="s">
+        <v>62</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="79" t="s">
+      <c r="L14" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="72"/>
-      <c r="N14" s="80" t="s">
+      <c r="M14" s="70"/>
+      <c r="N14" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="81"/>
-      <c r="W14" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="X14" s="37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="45.75">
-      <c r="A15" s="49"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="52"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="79"/>
+    </row>
+    <row r="15" spans="1:21" ht="45.75">
+      <c r="A15" s="48"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -2156,39 +2105,35 @@
         <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="79" t="s">
+      <c r="L15" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="72"/>
-      <c r="N15" s="80" t="s">
+      <c r="M15" s="70"/>
+      <c r="N15" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="81"/>
-      <c r="W15" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" ht="76.5">
-      <c r="A16" s="49"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="52"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="79"/>
+    </row>
+    <row r="16" spans="1:21" ht="76.5">
+      <c r="A16" s="48"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
@@ -2196,40 +2141,36 @@
       <c r="H16" s="5">
         <v>1600</v>
       </c>
-      <c r="I16" s="43" t="s">
-        <v>69</v>
+      <c r="I16" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="79" t="s">
+      <c r="L16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="72"/>
-      <c r="N16" s="80" t="s">
+      <c r="M16" s="70"/>
+      <c r="N16" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="81"/>
-      <c r="W16" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" ht="76.5">
-      <c r="A17" s="49"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="52"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="79"/>
+    </row>
+    <row r="17" spans="1:21" ht="76.5">
+      <c r="A17" s="48"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
@@ -2238,34 +2179,30 @@
         <v>46</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="79" t="s">
+      <c r="L17" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="72"/>
-      <c r="N17" s="80" t="s">
+      <c r="M17" s="70"/>
+      <c r="N17" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="81"/>
-      <c r="W17" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" ht="121.5">
-      <c r="A18" s="54"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="57"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="79"/>
+    </row>
+    <row r="18" spans="1:21" ht="121.5">
+      <c r="A18" s="53"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
@@ -2278,37 +2215,33 @@
       <c r="H18" s="5">
         <v>6</v>
       </c>
-      <c r="I18" s="43" t="s">
-        <v>72</v>
+      <c r="I18" s="42" t="s">
+        <v>69</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="79" t="s">
+      <c r="K18" s="69"/>
+      <c r="L18" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="72"/>
-      <c r="N18" s="80" t="s">
+      <c r="M18" s="70"/>
+      <c r="N18" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="72" t="s">
+      <c r="O18" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72" t="s">
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="72" t="s">
+      <c r="R18" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="81"/>
-      <c r="T18" s="72" t="s">
+      <c r="S18" s="79"/>
+      <c r="T18" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="81"/>
-      <c r="W18" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18" s="71"/>
+      <c r="U18" s="79"/>
     </row>
   </sheetData>
   <dataValidations count="9">
@@ -2423,10 +2356,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O1" s="25" t="s">
         <v>13</v>
@@ -2445,20 +2378,20 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="45.75">
-      <c r="A2" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="94" t="s">
+      <c r="A2" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="85">
+      <c r="D2" s="83">
         <v>896583</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>24</v>
@@ -2472,11 +2405,11 @@
       <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87" t="s">
+      <c r="K2" s="85"/>
+      <c r="L2" s="85" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="17"/>
@@ -2484,16 +2417,16 @@
         <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="121.5">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="85"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>30</v>
@@ -2507,18 +2440,18 @@
       <c r="I3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:19" ht="259.5">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>32</v>
@@ -2532,41 +2465,41 @@
       <c r="I4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
       <c r="M4" s="36" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
       </c>
       <c r="P4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
         <v>77</v>
       </c>
-      <c r="R4" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="5" spans="1:19" ht="45.75" customHeight="1">
-      <c r="A5" s="84">
+      <c r="A5" s="82">
         <v>1061012</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="95">
+        <v>1128978</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97">
-        <v>1128978</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
@@ -2575,7 +2508,7 @@
         <v>45</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
@@ -2585,19 +2518,19 @@
         <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
@@ -2606,29 +2539,29 @@
         <v>4.2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="45.75">
-      <c r="A7" s="84"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
@@ -2637,7 +2570,7 @@
         <v>570</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
@@ -2647,19 +2580,19 @@
         <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30.75">
-      <c r="A8" s="84"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
@@ -2668,7 +2601,7 @@
         <v>70</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
@@ -2676,15 +2609,15 @@
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="50.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -2693,7 +2626,7 @@
         <v>370</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -2701,16 +2634,16 @@
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:19" ht="37.5">
-      <c r="A10" s="84"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="23" t="str">
         <f>'Beneficiary Categories'!A15</f>
         <v>Medium Enterprises</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -2719,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -2729,33 +2662,33 @@
         <v>28</v>
       </c>
       <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s">
         <v>77</v>
       </c>
-      <c r="R10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" t="s">
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="161.25" customHeight="1">
+      <c r="A11" s="80">
+        <v>134019</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="83">
+        <v>3000000</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" ht="161.25" customHeight="1">
-      <c r="A11" s="82">
-        <v>134019</v>
-      </c>
-      <c r="B11" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="85">
-        <v>3000000</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="F11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -2763,37 +2696,37 @@
       <c r="H11" s="4">
         <v>70</v>
       </c>
-      <c r="I11" s="86" t="s">
-        <v>55</v>
+      <c r="I11" s="84" t="s">
+        <v>54</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" ht="91.5">
-      <c r="A12" s="82"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
@@ -2801,78 +2734,78 @@
       <c r="H12" s="16">
         <v>20</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="183" customHeight="1">
-      <c r="A13" s="90">
+      <c r="A13" s="88">
         <v>117633</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="D13" s="83">
+        <v>2201100</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="D13" s="85">
-        <v>2201100</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="85" t="s">
         <v>27</v>
       </c>
       <c r="M13" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="168" customHeight="1">
+      <c r="A14" s="82"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="O13" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="168" customHeight="1">
-      <c r="A14" s="84"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="F14" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -2881,31 +2814,31 @@
         <v>1300</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="88"/>
+      <c r="L14" s="86"/>
       <c r="M14" s="37" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="O14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="30.75">
-      <c r="A15" s="84"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="85"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
@@ -2914,29 +2847,29 @@
         <v>3</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
-      <c r="L15" s="88"/>
+      <c r="L15" s="86"/>
       <c r="M15" s="17"/>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="76.5">
-      <c r="A16" s="84"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="85"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -2945,29 +2878,29 @@
         <v>1600</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="88"/>
+      <c r="L16" s="86"/>
       <c r="M16" s="17"/>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="76.5">
-      <c r="A17" s="84"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="85"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -2976,26 +2909,26 @@
         <v>46</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="88"/>
+      <c r="L17" s="86"/>
       <c r="M17" s="17"/>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="121.5">
-      <c r="A18" s="84"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="85"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>19</v>
@@ -3007,17 +2940,17 @@
         <v>6</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="89"/>
+      <c r="L18" s="87"/>
       <c r="M18" s="17"/>
       <c r="O18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R18" t="s">
         <v>35</v>
@@ -3130,41 +3063,41 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="45.75">
-      <c r="A2" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="94" t="s">
+      <c r="A2" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="85">
+      <c r="D2" s="83">
         <v>896583</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="121.5">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="85"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>30</v>
@@ -3173,17 +3106,17 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60.75">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="3" t="str">
         <f>E2</f>
         <v xml:space="preserve">Policy or Regulatory Framework and pilot activities </v>
@@ -3202,84 +3135,84 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="45.75" customHeight="1">
-      <c r="A5" s="84">
+      <c r="A5" s="82">
         <v>1061012</v>
       </c>
-      <c r="B5" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97">
+      <c r="B5" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="95">
         <v>1128978</v>
       </c>
       <c r="E5" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="70.5" customHeight="1">
+      <c r="A6" s="82"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="70.5" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="23" t="s">
+      <c r="I6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45.75">
+      <c r="A7" s="82"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45.75">
-      <c r="A7" s="84"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30.75">
+      <c r="A8" s="82"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30.75">
-      <c r="A8" s="84"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
@@ -3288,19 +3221,19 @@
         <v>70</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="50.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -3309,20 +3242,20 @@
         <v>370</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="37.5">
-      <c r="A10" s="84"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="23" t="str">
         <f>'Beneficiary Categories'!A15</f>
         <v>Medium Enterprises</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -3331,27 +3264,27 @@
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="161.25" customHeight="1">
-      <c r="A11" s="82">
+      <c r="A11" s="80">
         <v>134019</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="85">
+      <c r="D11" s="83">
         <v>3000000</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -3359,20 +3292,20 @@
       <c r="H11" s="4">
         <v>70</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="91.5">
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="91.5">
-      <c r="A12" s="82"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
@@ -3380,68 +3313,68 @@
       <c r="H12" s="16">
         <v>20</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:10" ht="183" customHeight="1">
-      <c r="A13" s="90">
+      <c r="A13" s="88">
         <v>117633</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="D13" s="83">
+        <v>2201100</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="85">
-        <v>2201100</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="168" customHeight="1">
+      <c r="A14" s="82"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="168" customHeight="1">
-      <c r="A14" s="84"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="I14" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30.75">
+      <c r="A15" s="82"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30.75">
-      <c r="A15" s="84"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
@@ -3450,40 +3383,40 @@
         <v>3</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="76.5">
-      <c r="A16" s="84"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="85"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="76.5">
-      <c r="A17" s="84"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="85"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -3492,16 +3425,16 @@
         <v>46</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="121.5">
-      <c r="A18" s="84"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="85"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>19</v>
@@ -3513,7 +3446,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3559,179 +3492,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45.75">
-      <c r="A2" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="74" t="s">
+      <c r="A2" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="72" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="74" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="96" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30.75">
-      <c r="A4" s="98" t="s">
+      <c r="B4" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="74" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="96" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30.75">
-      <c r="A5" s="98" t="s">
+      <c r="B5" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="74" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="91.5">
-      <c r="A6" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="74" t="s">
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="96" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="45.75">
-      <c r="A7" s="98" t="s">
+      <c r="B7" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="74" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="96" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="45.75">
-      <c r="A8" s="98" t="s">
+      <c r="B8" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="74" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="96" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="45.75">
-      <c r="A9" s="98" t="s">
+      <c r="B9" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="74" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="96" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30.75">
-      <c r="A10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="99" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="96" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="30.75">
-      <c r="A11" s="98" t="s">
+      <c r="B11" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="99" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="96" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="45.75">
-      <c r="A12" s="98" t="s">
+      <c r="B12" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="74" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="97" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30.75">
-      <c r="A13" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="99" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="96" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="98" t="s">
+      <c r="B14" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="99" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="97" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30.75">
-      <c r="A15" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="99" t="s">
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="97" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30.75">
-      <c r="A16" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="99" t="s">
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="72" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30.75">
-      <c r="A17" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="74" t="s">
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="97" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30.75">
-      <c r="A18" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="99" t="s">
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="96" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="76.5">
-      <c r="A19" s="98" t="s">
+      <c r="B19" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="99" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="96" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="30.75">
-      <c r="A20" s="98" t="s">
+      <c r="B20" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="99" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="98" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45.75">
-      <c r="A21" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="100" t="s">
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="97" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30.75">
-      <c r="A22" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3740,8 +3673,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -3766,6 +3719,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3845,6 +3799,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3988,34 +3947,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{026D64B1-7D69-471C-86B7-14AEDFA13599}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B2295D2-686C-4E88-AC90-9CDCBA3A093B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B2295D2-686C-4E88-AC90-9CDCBA3A093B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{242C6A4E-D5F7-40A6-BE63-872510DEAD3D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{242C6A4E-D5F7-40A6-BE63-872510DEAD3D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9EA5A6B-4907-41A1-A8C7-9BE3F53C78B4}"/>
 </file>